--- a/Design/First.xlsx
+++ b/Design/First.xlsx
@@ -29,9 +29,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>SoulDefence （魂守）</t>
+  </si>
+  <si>
+    <t>核心机制</t>
+  </si>
+  <si>
+    <t>游戏总流程</t>
+  </si>
+  <si>
+    <t>需求模块</t>
   </si>
 </sst>
 </file>
@@ -965,69 +974,144 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="I4:P8"/>
+  <dimension ref="B4:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="8" max="8" width="86" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="9:16">
-      <c r="I4" s="1" t="s">
+    <row r="4" spans="2:9">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="9:16">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="9:16">
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="9:16">
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="9:16">
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+    </row>
+    <row r="9" ht="141" customHeight="1" spans="7:7">
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="113" customHeight="1" spans="7:7">
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" ht="160" customHeight="1" spans="7:7">
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" ht="120" customHeight="1"/>
+    <row r="13" spans="9:17">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="9:17">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="9:17">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="9:17">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="9:17">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I4:P8"/>
+  <mergeCells count="2">
+    <mergeCell ref="B4:I8"/>
+    <mergeCell ref="I13:Q17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
